--- a/DOC/要件定義/社内管理システム_EMSM_Ph2.xlsx
+++ b/DOC/要件定義/社内管理システム_EMSM_Ph2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\softtech\git\emsm\DOC\要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE875C0-8AEB-4B59-8E0C-FB007A15EBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848B41CE-8525-400F-9D1C-4605A1524989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="1000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="750" windowWidth="23565" windowHeight="13995" tabRatio="1000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="18" r:id="rId1"/>
@@ -478,6 +478,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -495,12 +501,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3399,108 +3399,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="11" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="11"/>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="13" t="s">
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="AL1" s="14"/>
-      <c r="AM1" s="14"/>
-      <c r="AN1" s="14"/>
-      <c r="AO1" s="14"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15" t="s">
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15" t="s">
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="15"/>
-      <c r="AM2" s="15"/>
-      <c r="AN2" s="15"/>
-      <c r="AO2" s="15"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="17"/>
+      <c r="AO2" s="17"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -3690,7 +3690,7 @@
   <dimension ref="A1:AV30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3699,120 +3699,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="12"/>
-      <c r="AN1" s="12"/>
-      <c r="AO1" s="11" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="14"/>
+      <c r="AN1" s="14"/>
+      <c r="AO1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="14"/>
-      <c r="AT1" s="14"/>
-      <c r="AU1" s="14"/>
-      <c r="AV1" s="14"/>
+      <c r="AP1" s="13"/>
+      <c r="AQ1" s="13"/>
+      <c r="AR1" s="15"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="16"/>
+      <c r="AV1" s="16"/>
     </row>
     <row r="2" spans="1:48" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="16" t="s">
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="15"/>
-      <c r="AM2" s="15"/>
-      <c r="AN2" s="15"/>
-      <c r="AO2" s="15" t="s">
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="17"/>
+      <c r="AO2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="AP2" s="15"/>
-      <c r="AQ2" s="15"/>
-      <c r="AR2" s="15"/>
-      <c r="AS2" s="15"/>
-      <c r="AT2" s="15"/>
-      <c r="AU2" s="15"/>
-      <c r="AV2" s="15"/>
+      <c r="AP2" s="17"/>
+      <c r="AQ2" s="17"/>
+      <c r="AR2" s="17"/>
+      <c r="AS2" s="17"/>
+      <c r="AT2" s="17"/>
+      <c r="AU2" s="17"/>
+      <c r="AV2" s="17"/>
     </row>
     <row r="3" spans="1:48" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -3870,7 +3870,7 @@
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="11" t="s">
         <v>28</v>
       </c>
       <c r="G8" s="9" t="s">
@@ -3888,7 +3888,7 @@
       <c r="AA8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AD8" s="18" t="s">
+      <c r="AD8" s="12" t="s">
         <v>40</v>
       </c>
       <c r="AN8" s="5"/>
@@ -3930,6 +3930,7 @@
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
+      <c r="G14" s="9"/>
       <c r="AN14" s="5"/>
       <c r="AV14" s="2"/>
     </row>

--- a/DOC/要件定義/社内管理システム_EMSM_Ph2.xlsx
+++ b/DOC/要件定義/社内管理システム_EMSM_Ph2.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\softtech\git\emsm\DOC\要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848B41CE-8525-400F-9D1C-4605A1524989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDDDC16-422F-40DE-BD3B-906ECD866E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="750" windowWidth="23565" windowHeight="13995" tabRatio="1000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="1000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="18" r:id="rId1"/>
     <sheet name="一般経費 " sheetId="19" r:id="rId2"/>
     <sheet name="支払管理" sheetId="24" r:id="rId3"/>
+    <sheet name="20250905" sheetId="25" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
   <si>
     <t>No.</t>
   </si>
@@ -303,12 +304,174 @@
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>①タイトル　名の変更</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>４か５文字まで？</t>
+    <rPh sb="3" eb="5">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>②データ：</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>年月表示変更　YYYY/MM/DD</t>
+    <rPh sb="0" eb="2">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>金額　123,456　式、小数点なし。</t>
+    <rPh sb="0" eb="2">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ショウスウテン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>③幅調整</t>
+    <rPh sb="1" eb="4">
+      <t>ハバチョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>改善１：</t>
+    <rPh sb="0" eb="2">
+      <t>カイゼン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>改善2：</t>
+    <rPh sb="0" eb="2">
+      <t>カイゼン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>①データ：</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>②自動計算と微妙に違う。</t>
+    <rPh sb="1" eb="3">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ビミョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>改善3：</t>
+    <rPh sb="0" eb="2">
+      <t>カイゼン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>②検索種類追加</t>
+    <rPh sb="1" eb="3">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>期間検索：</t>
+    <rPh sb="0" eb="2">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>From：YYYYMMDD～YYYYMMDD</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>経費種別件検索</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヒ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュベツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>経費種別</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヒ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <rPh sb="0" eb="2">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>検索</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,6 +513,12 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -2927,6 +3096,143 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>74818</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{635E3644-2B63-9F5D-C648-24E86D9D5F5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="457200"/>
+          <a:ext cx="10660379" cy="3046618"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>159037</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EA4CFBA-3CC2-88A6-2FB4-044A7A46013C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="731520" y="5547360"/>
+          <a:ext cx="3450877" cy="3848100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>640081</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>320041</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>128457</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF9DF21-2390-96ED-41F7-C2A72A442114}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="640081" y="11430000"/>
+          <a:ext cx="11079480" cy="2414457"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3192,19 +3498,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.125" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="4" max="4" width="67.875" customWidth="1"/>
+    <col min="1" max="1" width="4.09765625" customWidth="1"/>
+    <col min="3" max="3" width="11.09765625" customWidth="1"/>
+    <col min="4" max="4" width="67.8984375" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -3218,7 +3524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B3" s="6">
         <v>1</v>
       </c>
@@ -3232,7 +3538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="93.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5" ht="93.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="6">
         <v>2</v>
       </c>
@@ -3246,133 +3552,133 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -3393,12 +3699,12 @@
       <selection activeCell="AH7" sqref="AH7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="70" width="3.625" customWidth="1"/>
+    <col min="1" max="70" width="3.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:41" ht="22.2" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
@@ -3449,7 +3755,7 @@
       <c r="AN1" s="16"/>
       <c r="AO1" s="16"/>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A2" s="17" t="s">
         <v>10</v>
       </c>
@@ -3502,7 +3808,7 @@
       <c r="AN2" s="17"/>
       <c r="AO2" s="17"/>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -3511,17 +3817,17 @@
       </c>
       <c r="AO3" s="2"/>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="AG4" s="5"/>
       <c r="AO4" s="2"/>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="AG5" s="5"/>
       <c r="AO5" s="2"/>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="AG6" s="5"/>
       <c r="AH6" s="9" t="s">
@@ -3530,7 +3836,7 @@
       <c r="AM6" s="3"/>
       <c r="AO6" s="2"/>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="W7" t="s">
         <v>18</v>
@@ -3538,7 +3844,7 @@
       <c r="AG7" s="5"/>
       <c r="AO7" s="2"/>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="K8" t="s">
         <v>19</v>
@@ -3546,7 +3852,7 @@
       <c r="AG8" s="5"/>
       <c r="AO8" s="2"/>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="K9" t="s">
         <v>19</v>
@@ -3554,27 +3860,27 @@
       <c r="AG9" s="5"/>
       <c r="AO9" s="2"/>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="AG10" s="5"/>
       <c r="AO10" s="2"/>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="AG11" s="5"/>
       <c r="AO11" s="2"/>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="AG12" s="5"/>
       <c r="AO12" s="2"/>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="AG13" s="5"/>
       <c r="AO13" s="2"/>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="L14" t="s">
         <v>19</v>
@@ -3582,12 +3888,12 @@
       <c r="AG14" s="5"/>
       <c r="AO14" s="2"/>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="AG15" s="5"/>
       <c r="AO15" s="2"/>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="M16" t="s">
         <v>19</v>
@@ -3595,12 +3901,12 @@
       <c r="AG16" s="5"/>
       <c r="AO16" s="2"/>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="AG17" s="5"/>
       <c r="AO17" s="2"/>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="Q18" t="s">
         <v>19</v>
@@ -3608,47 +3914,47 @@
       <c r="AG18" s="5"/>
       <c r="AO18" s="2"/>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="AG19" s="5"/>
       <c r="AO19" s="2"/>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="AG20" s="5"/>
       <c r="AO20" s="2"/>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
       <c r="AG21" s="5"/>
       <c r="AO21" s="2"/>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
       <c r="AG22" s="5"/>
       <c r="AO22" s="2"/>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
       <c r="AG23" s="5"/>
       <c r="AO23" s="2"/>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
       <c r="AG24" s="5"/>
       <c r="AO24" s="2"/>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="AG25" s="5"/>
       <c r="AO25" s="2"/>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="AG26" s="5"/>
       <c r="AO26" s="2"/>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.45">
       <c r="B28" s="9" t="s">
         <v>20</v>
       </c>
@@ -3656,12 +3962,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.45">
       <c r="C29" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.45">
       <c r="C30" s="9" t="s">
         <v>23</v>
       </c>
@@ -3689,16 +3995,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D2ECAC-8EB5-42AB-AE52-6474683BDF4B}">
   <dimension ref="A1:AV30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="77" width="3.625" customWidth="1"/>
+    <col min="1" max="77" width="3.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:48" ht="22.2" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
@@ -3754,7 +4060,7 @@
       <c r="AU1" s="16"/>
       <c r="AV1" s="16"/>
     </row>
-    <row r="2" spans="1:48" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:48" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">
         <v>10</v>
       </c>
@@ -3814,7 +4120,7 @@
       <c r="AU2" s="17"/>
       <c r="AV2" s="17"/>
     </row>
-    <row r="3" spans="1:48" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:48" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -3823,12 +4129,12 @@
       </c>
       <c r="AV3" s="2"/>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="AN4" s="5"/>
       <c r="AV4" s="2"/>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="9" t="s">
         <v>26</v>
@@ -3836,13 +4142,13 @@
       <c r="AN5" s="5"/>
       <c r="AV5" s="2"/>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="AN6" s="5"/>
       <c r="AT6" s="3"/>
       <c r="AV6" s="2"/>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="C7" s="9" t="s">
         <v>27</v>
@@ -3868,7 +4174,7 @@
       <c r="AN7" s="5"/>
       <c r="AV7" s="2"/>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="C8" s="11" t="s">
         <v>28</v>
@@ -3894,12 +4200,12 @@
       <c r="AN8" s="5"/>
       <c r="AV8" s="2"/>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="AN9" s="5"/>
       <c r="AV9" s="2"/>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="9" t="s">
         <v>41</v>
@@ -3907,7 +4213,7 @@
       <c r="AN10" s="5"/>
       <c r="AV10" s="2"/>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="9" t="s">
         <v>42</v>
@@ -3915,7 +4221,7 @@
       <c r="AN11" s="5"/>
       <c r="AV11" s="2"/>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="9" t="s">
         <v>43</v>
@@ -3923,85 +4229,85 @@
       <c r="AN12" s="5"/>
       <c r="AV12" s="2"/>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="AN13" s="5"/>
       <c r="AV13" s="2"/>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="G14" s="9"/>
       <c r="AN14" s="5"/>
       <c r="AV14" s="2"/>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="AN15" s="5"/>
       <c r="AV15" s="2"/>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="AN16" s="5"/>
       <c r="AV16" s="2"/>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="AN17" s="5"/>
       <c r="AV17" s="2"/>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="AN18" s="5"/>
       <c r="AV18" s="2"/>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="AN19" s="5"/>
       <c r="AV19" s="2"/>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="AN20" s="5"/>
       <c r="AV20" s="2"/>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
       <c r="AN21" s="5"/>
       <c r="AV21" s="2"/>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
       <c r="AN22" s="5"/>
       <c r="AV22" s="2"/>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
       <c r="AN23" s="5"/>
       <c r="AV23" s="2"/>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
       <c r="AN24" s="5"/>
       <c r="AV24" s="2"/>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="AN25" s="5"/>
       <c r="AV25" s="2"/>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="AN26" s="5"/>
       <c r="AV26" s="2"/>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.45">
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.45">
       <c r="C29" s="9"/>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.45">
       <c r="C30" s="9"/>
     </row>
   </sheetData>
@@ -4020,4 +4326,123 @@
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD691720-CDB3-4BB3-8D12-D3AEA7C874E7}">
+  <dimension ref="A2:H69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B19" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C20" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C21" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B23" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B43" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C44" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C45" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B47" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B63" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C64" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B66" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C67" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C68" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="E69" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/DOC/要件定義/社内管理システム_EMSM_Ph2.xlsx
+++ b/DOC/要件定義/社内管理システム_EMSM_Ph2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\softtech\git\emsm\DOC\要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDDDC16-422F-40DE-BD3B-906ECD866E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076927B1-E617-402B-9905-703212425741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="1000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="77">
   <si>
     <t>No.</t>
   </si>
@@ -466,12 +466,78 @@
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
+  <si>
+    <t>改善4：</t>
+    <rPh sb="0" eb="2">
+      <t>カイゼン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ファイルアップロードをm_fileに管理する</t>
+    <rPh sb="18" eb="20">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>fileTypeCode</t>
+  </si>
+  <si>
+    <t>fileTypeName</t>
+  </si>
+  <si>
+    <t>fileTypeAbbrName</t>
+  </si>
+  <si>
+    <t>saveFolder</t>
+  </si>
+  <si>
+    <t>delFlg</t>
+  </si>
+  <si>
+    <t>insertDate</t>
+  </si>
+  <si>
+    <t>updateDate</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>経費管理</t>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>年末調整</t>
+    <rPh sb="0" eb="2">
+      <t>ネンマツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>C:\work\file</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>C:\work\file\nenTyosei</t>
+    <phoneticPr fontId="6"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="yyyy/mm/dd\ h:mm:ss"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,13 +588,51 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF87E7AD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -608,12 +712,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -671,9 +778,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{D4A85E72-F1F0-4EEF-8680-1B234A601301}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3235,6 +3364,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>196356</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B5D9EB1-9A6A-D371-446A-0F23680113E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="701040" y="16322040"/>
+          <a:ext cx="5714999" cy="3305316"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4330,10 +4503,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD691720-CDB3-4BB3-8D12-D3AEA7C874E7}">
-  <dimension ref="A2:H69"/>
+  <dimension ref="A2:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="K68" sqref="K68"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="O92" sqref="O92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4411,12 +4584,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B66" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C67" s="9" t="s">
         <v>56</v>
       </c>
@@ -4424,12 +4597,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C68" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E69" s="9" t="s">
         <v>59</v>
       </c>
@@ -4438,6 +4611,85 @@
       </c>
       <c r="H69" s="9" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A71" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B88" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B90" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D90" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E90" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F90" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G90" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H90" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B91" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D91" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E91" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F91" s="21">
+        <v>0</v>
+      </c>
+      <c r="G91" s="22">
+        <v>45890.718668981484</v>
+      </c>
+      <c r="H91" s="22">
+        <v>45890.718668981484</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B92" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C92" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D92" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E92" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F92" s="21">
+        <v>0</v>
+      </c>
+      <c r="G92" s="22">
+        <v>45890.718668981484</v>
+      </c>
+      <c r="H92" s="22">
+        <v>45890.718668981484</v>
       </c>
     </row>
   </sheetData>
